--- a/data/trans_bre/P1409-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1409-Habitat-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.9940439340976255</v>
+        <v>-1.051792849853546</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.722947317045003</v>
+        <v>-1.875003681727456</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.617245540156961</v>
+        <v>-3.711818440348352</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.4267158737790657</v>
+        <v>-0.4475135892712185</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4076720941462392</v>
+        <v>-0.4368066173937724</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5697818055293423</v>
+        <v>-0.5964461671252035</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.075512731661126</v>
+        <v>1.910103667793152</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.056349650739608</v>
+        <v>2.137036635729687</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3819457118528031</v>
+        <v>0.3249963848379178</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.707842842044772</v>
+        <v>1.556119097756928</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8951570987321196</v>
+        <v>0.9830537665027935</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1244419583833017</v>
+        <v>0.1138761329165028</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>2.150937439954336</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-0.7869423822932077</v>
+        <v>-0.786942382293207</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.6309318875164716</v>
@@ -709,7 +709,7 @@
         <v>0.9545906230128264</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1687765734441249</v>
+        <v>-0.1687765734441248</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2132660736771872</v>
+        <v>-0.2145081162913854</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5384848278728761</v>
+        <v>0.5444400325034409</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.110986483761486</v>
+        <v>-3.013747429719864</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1240527410754695</v>
+        <v>-0.1198218143670708</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1190709748466006</v>
+        <v>0.1633869475022586</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4842847247961516</v>
+        <v>-0.4680933523139817</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.533258490533654</v>
+        <v>2.564984759361011</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.950669769902262</v>
+        <v>3.795440418604793</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9156712914690184</v>
+        <v>0.8888025008199761</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.162084845130574</v>
+        <v>2.151977197501739</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.504691759941436</v>
+        <v>2.282606710580287</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2931844117107942</v>
+        <v>0.2703434750938166</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>2.422754742303536</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.487865286455643</v>
+        <v>2.487865286455644</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.8668098491803076</v>
@@ -791,7 +791,7 @@
         <v>1.604307541691455</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8471669573606154</v>
+        <v>0.8471669573606159</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.1931240985723035</v>
+        <v>-0.2438400864056377</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9105930881786206</v>
+        <v>0.9301142144832946</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.482793998267955</v>
+        <v>0.3933599018355037</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1429558270681139</v>
+        <v>-0.2183241094261117</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3563741923963577</v>
+        <v>0.3132865095934754</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05061757590984035</v>
+        <v>0.03956312049396628</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.56082277713449</v>
+        <v>2.623837394475396</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.137613098398759</v>
+        <v>4.289375481820779</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.361339350328861</v>
+        <v>4.293563142105299</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>3.515014584841742</v>
+        <v>3.211108983552641</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.735876153793676</v>
+        <v>5.471674861168293</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.207461371552605</v>
+        <v>2.367605896155774</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>0.7369333918140659</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2.973655309778798</v>
+        <v>2.973655309778799</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1527751045321166</v>
@@ -873,7 +873,7 @@
         <v>0.2296484994042525</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9161983097392641</v>
+        <v>0.9161983097392645</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.178392229305044</v>
+        <v>-1.006850436554384</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.108653547680611</v>
+        <v>-0.8542105679478295</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.193851879832819</v>
+        <v>1.120380243093971</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3678405492279813</v>
+        <v>-0.3202772309300283</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2756213796084179</v>
+        <v>-0.2255443650350528</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2266425056185309</v>
+        <v>0.2106242482890875</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.872686477242517</v>
+        <v>2.056478622239707</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.258848721952456</v>
+        <v>2.416105985363833</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.703878380120353</v>
+        <v>4.577651012725097</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9687677082002737</v>
+        <v>1.179319614832773</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9106031592882632</v>
+        <v>1.01261092388008</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.041847338685637</v>
+        <v>1.835202251404543</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>1.443346157724674</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9137689685655321</v>
+        <v>0.9137689685655315</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.4175795292042966</v>
@@ -955,7 +955,7 @@
         <v>0.5684562238127547</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2372845890012987</v>
+        <v>0.2372845890012985</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07449410587279109</v>
+        <v>0.06423213647337685</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5733589026429</v>
+        <v>0.5198158457646237</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.072637073422786</v>
+        <v>-0.1189191554363054</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.02333659650377763</v>
+        <v>0.02243125900331036</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2051118700153089</v>
+        <v>0.1875486078007852</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.02423398990143532</v>
+        <v>-0.03075059950313404</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.478991581180482</v>
+        <v>1.551488852088494</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.326540410472692</v>
+        <v>2.258944911477547</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.85253959247546</v>
+        <v>1.894969071826819</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.9219745210621446</v>
+        <v>0.9796815830821736</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.112201149551953</v>
+        <v>1.022837305074137</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5601764311988165</v>
+        <v>0.5622271205067001</v>
       </c>
     </row>
     <row r="19">
